--- a/Tabla.xlsx
+++ b/Tabla.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Docs\Diseño de Software\Deber de malos olores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Docs\Diseño de Software\DSAutonomo02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Nombre del mal olor</t>
   </si>
@@ -230,6 +230,12 @@
 ─ Extract Class and Hide Delegate
 ─ Change Bidirectional Association to Unidirectional
 ─ Replace Delegation with Inheritance</t>
+  </si>
+  <si>
+    <t>referencia feature envy</t>
+  </si>
+  <si>
+    <t>https://elearning.industriallogic.com/gh/submit?Action=PageAction&amp;album=recognizingSmells&amp;path=recognizingSmells/featureEnvy/featureEnvyExample&amp;devLanguage=Java</t>
   </si>
 </sst>
 </file>
@@ -624,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G15"/>
+  <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,6 +852,14 @@
       </c>
       <c r="F15" s="3"/>
     </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:C2"/>

--- a/Tabla.xlsx
+++ b/Tabla.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Nombre del mal olor</t>
   </si>
@@ -237,15 +237,29 @@
   <si>
     <t>https://elearning.industriallogic.com/gh/submit?Action=PageAction&amp;album=recognizingSmells&amp;path=recognizingSmells/featureEnvy/featureEnvyExample&amp;devLanguage=Java</t>
   </si>
+  <si>
+    <t>referencia shotgun surgery</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/code-smell-shot-surgery</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -301,10 +315,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -322,8 +337,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -630,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G18"/>
+  <dimension ref="B2:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,12 +871,20 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="120" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="7" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -867,6 +894,10 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C19" r:id="rId1"/>
+    <hyperlink ref="C18" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>